--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCDF/10/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCDF/10/seed3/result_data_KNN.xlsx
@@ -522,7 +522,7 @@
         <v>-15.14</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.65</v>
+        <v>-8.436</v>
       </c>
       <c r="E5" t="n">
         <v>9.970000000000001</v>
@@ -539,7 +539,7 @@
         <v>-12.89</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.500000000000002</v>
+        <v>-8.055999999999999</v>
       </c>
       <c r="E6" t="n">
         <v>14.65</v>
@@ -553,7 +553,7 @@
         <v>6.56</v>
       </c>
       <c r="C7" t="n">
-        <v>-13.786</v>
+        <v>-13.498</v>
       </c>
       <c r="D7" t="n">
         <v>-9.31</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-20.986</v>
+        <v>-20.926</v>
       </c>
       <c r="B10" t="n">
         <v>9.35</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-22.222</v>
+        <v>-21.808</v>
       </c>
       <c r="B12" t="n">
         <v>5.38</v>
@@ -644,7 +644,7 @@
         <v>-10.06</v>
       </c>
       <c r="E12" t="n">
-        <v>12.862</v>
+        <v>13.041</v>
       </c>
     </row>
     <row r="13">
@@ -652,7 +652,7 @@
         <v>-21.95</v>
       </c>
       <c r="B13" t="n">
-        <v>6.236</v>
+        <v>6.955</v>
       </c>
       <c r="C13" t="n">
         <v>-13.63</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.136</v>
+        <v>-21.78</v>
       </c>
       <c r="B18" t="n">
         <v>5.81</v>
@@ -774,13 +774,13 @@
         <v>5.51</v>
       </c>
       <c r="C20" t="n">
-        <v>-14.266</v>
+        <v>-12.879</v>
       </c>
       <c r="D20" t="n">
         <v>-8.140000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>12.58</v>
+        <v>12.637</v>
       </c>
     </row>
     <row r="21">
@@ -865,7 +865,7 @@
         <v>-7.71</v>
       </c>
       <c r="E25" t="n">
-        <v>12.42</v>
+        <v>12.784</v>
       </c>
     </row>
   </sheetData>
